--- a/Resource/Read_Write.xlsx
+++ b/Resource/Read_Write.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -600,10 +600,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,126 +671,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
